--- a/proof/0104.KL_monthly_calc.xlsx
+++ b/proof/0104.KL_monthly_calc.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,16 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tys\Documents\Project\github_project\bursa-scraper\proof\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{04194552-91A8-40BC-A447-0E63BDDEB247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9344D83-E790-4873-83AA-29E4774FEEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8290" yWindow="440" windowWidth="10800" windowHeight="7870" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="-1380" yWindow="520" windowWidth="19460" windowHeight="7870" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="^KLSE_monthly" sheetId="2" r:id="rId1"/>
     <sheet name="0104.KL_monthly" sheetId="1" r:id="rId2"/>
     <sheet name="Calculation" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -124,7 +136,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -978,7 +990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0">
@@ -2396,7 +2408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView topLeftCell="A50" workbookViewId="0"/>
@@ -3812,11 +3824,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3947,35 +3959,35 @@
         <v>0.04</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E67" si="0">B4/B3-1</f>
+        <f t="shared" ref="E4:E61" si="0">B4/B3-1</f>
         <v>-1.7197616734921928E-2</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F67" si="1">C4/C3-1</f>
+        <f t="shared" ref="F4:F61" si="1">C4/C3-1</f>
         <v>-0.38094972556579654</v>
       </c>
       <c r="G4" s="4">
-        <f t="shared" ref="G4:G67" si="2">(1+D4)^(1/12) -1</f>
+        <f t="shared" ref="G4:G61" si="2">(1+D4)^(1/12) -1</f>
         <v>3.2737397821989145E-3</v>
       </c>
       <c r="H4" s="5">
-        <f t="shared" ref="H4:H67" si="3">E4-$G$3</f>
+        <f t="shared" ref="H4:H61" si="3">E4-$G$3</f>
         <v>-2.0471356517120842E-2</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" ref="I4:I67" si="4">F4-$G$3</f>
+        <f t="shared" ref="I4:I61" si="4">F4-$G$3</f>
         <v>-0.38422346534799545</v>
       </c>
       <c r="M4" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="4">
-        <f t="array" ref="N4">PRODUCT(1+E3:E61)^(1/12)-1</f>
-        <v>-1.2805994796962095E-2</v>
-      </c>
-      <c r="O4" s="4">
-        <f t="array" ref="O4">PRODUCT(1+F3:F61)^(1/12)-1</f>
-        <v>0.30929766564813987</v>
+      <c r="N4" s="4" cm="1">
+        <f t="array" ref="N4">PRODUCT(1+E3:E61)^(1/5)-1</f>
+        <v>-3.0459349757850918E-2</v>
+      </c>
+      <c r="O4" s="4" cm="1">
+        <f t="array" ref="O4">PRODUCT(1+F3:F61)^(1/5)-1</f>
+        <v>0.90937901248035868</v>
       </c>
       <c r="R4">
         <v>0.03</v>
@@ -4064,11 +4076,11 @@
       </c>
       <c r="N6" s="6">
         <f>(N4-$G$61)/N5</f>
-        <v>-0.13007315118513757</v>
+        <v>-0.2728757265291642</v>
       </c>
       <c r="O6" s="6">
         <f>(O4-$G$61)/O5</f>
-        <v>0.25894675901136904</v>
+        <v>0.76671463848577071</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
@@ -4109,11 +4121,11 @@
       </c>
       <c r="N7" s="6">
         <f>(N4-$G$61)/N3</f>
-        <v>-1.6079734579161009E-2</v>
+        <v>-3.3733089540049832E-2</v>
       </c>
       <c r="O7" s="6">
         <f>(O4-$G$61)/O3</f>
-        <v>2.2249991166662499</v>
+        <v>6.5879928363614839</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
